--- a/front-end/src/assets/thang6.xlsx
+++ b/front-end/src/assets/thang6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\SE310.K22\front-end\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A7C1D3-A198-4588-941E-DCB77F56482B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8C24C1-11D3-4C7D-8151-F480D468EACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="11835" xr2:uid="{BE837E92-535E-A14D-82C9-A35A53309437}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{BE837E92-535E-A14D-82C9-A35A53309437}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,6 +136,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -184,7 +187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,12 +505,12 @@
   <dimension ref="A4:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>43983</v>
       </c>
@@ -565,7 +568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>43984</v>
       </c>
@@ -588,7 +591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>43985</v>
       </c>
@@ -611,7 +614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>43986</v>
       </c>
@@ -630,7 +633,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>43987</v>
       </c>
@@ -653,7 +656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>43988</v>
       </c>
@@ -682,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>43989</v>
       </c>
@@ -711,7 +714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>43990</v>
       </c>
@@ -733,7 +736,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>43991</v>
       </c>
@@ -762,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>43992</v>
       </c>
@@ -785,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>43993</v>
       </c>
@@ -808,7 +811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>43994</v>
       </c>
@@ -833,7 +836,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>43995</v>
       </c>
@@ -856,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>43996</v>
       </c>
@@ -885,7 +888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>43997</v>
       </c>
@@ -904,7 +907,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>43998</v>
       </c>
@@ -927,7 +930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>43999</v>
       </c>
@@ -950,7 +953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>44000</v>
       </c>
@@ -979,7 +982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>44001</v>
       </c>
@@ -1004,7 +1007,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44002</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44003</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44004</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>44005</v>
       </c>
@@ -1101,7 +1104,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>44006</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44007</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>44008</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>44009</v>
       </c>
@@ -1201,7 +1204,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>44010</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44011</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44012</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>44012</v>
       </c>
